--- a/ipcores/quartus17.0/kns/PnP_ROM/docs/PnP ROM Structure Definitions.xlsx
+++ b/ipcores/quartus17.0/kns/PnP_ROM/docs/PnP ROM Structure Definitions.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>00h</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Git Commit</t>
+  </si>
+  <si>
+    <t>Build ID (Unix Time)</t>
   </si>
 </sst>
 </file>
@@ -419,15 +422,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,6 +438,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1327,39 +1330,43 @@
       </c>
     </row>
     <row r="13" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="11"/>
+      <c r="A13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -1747,7 +1754,15 @@
       <c r="AG24" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A13:AF13"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="Q5:AF5"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="U3:AF3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="Q4:AF4"/>
     <mergeCell ref="A11:P11"/>
     <mergeCell ref="Q11:AF11"/>
     <mergeCell ref="A12:AF12"/>
@@ -1756,13 +1771,6 @@
     <mergeCell ref="U9:AF9"/>
     <mergeCell ref="A10:P10"/>
     <mergeCell ref="Q10:AF10"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="Q5:AF5"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="U3:AF3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="Q4:AF4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2882,42 +2890,42 @@
       </c>
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="26" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="28"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="25"/>
       <c r="AG4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2933,16 +2941,16 @@
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
       <c r="Q5" s="17" t="s">
         <v>41</v>
       </c>
@@ -3201,21 +3209,21 @@
       <c r="Q10" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="25"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="30"/>
       <c r="AG10" s="5" t="s">
         <v>3</v>
       </c>
@@ -3387,16 +3395,16 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
       <c r="Q15" s="17" t="s">
         <v>41</v>
       </c>
@@ -3862,24 +3870,24 @@
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="22"/>
-      <c r="Q26" s="24" t="s">
+      <c r="Q26" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="25"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="30"/>
       <c r="AG26" s="5" t="s">
         <v>3</v>
       </c>
@@ -4499,24 +4507,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="Q4:AF4"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="U3:AF3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="U25:AF25"/>
-    <mergeCell ref="A32:P32"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="Q32:AB32"/>
-    <mergeCell ref="Q26:AF26"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="Q31:AF31"/>
-    <mergeCell ref="A30:P30"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="U30:AF30"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="I15:P15"/>
     <mergeCell ref="Q15:AF15"/>
@@ -4532,6 +4522,24 @@
     <mergeCell ref="A12:AF12"/>
     <mergeCell ref="A13:AF13"/>
     <mergeCell ref="A14:AF14"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="U25:AF25"/>
+    <mergeCell ref="A32:P32"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="Q32:AB32"/>
+    <mergeCell ref="Q26:AF26"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="Q31:AF31"/>
+    <mergeCell ref="A30:P30"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="U30:AF30"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="Q4:AF4"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="U3:AF3"/>
+    <mergeCell ref="A4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/ipcores/quartus17.0/kns/PnP_ROM/docs/PnP ROM Structure Definitions.xlsx
+++ b/ipcores/quartus17.0/kns/PnP_ROM/docs/PnP ROM Structure Definitions.xlsx
@@ -164,7 +164,7 @@
     <t>Git Commit</t>
   </si>
   <si>
-    <t>Build ID (Unix Time)</t>
+    <t>Build ID (Unsigned Unix Time)</t>
   </si>
 </sst>
 </file>
@@ -395,6 +395,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,13 +422,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -438,18 +450,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -870,126 +870,126 @@
       </c>
     </row>
     <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="17" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="17" t="s">
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="19"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="22"/>
       <c r="AG3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="17" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="19"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="22"/>
       <c r="AG4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="19"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="22"/>
       <c r="AG5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1166,204 +1166,204 @@
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="17" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="17" t="s">
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="19"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="22"/>
       <c r="AG9" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="17" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="19"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="22"/>
       <c r="AG10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="19"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="22"/>
       <c r="AG11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="22"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="16"/>
       <c r="AG12" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="22"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="16"/>
       <c r="AG13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1895,126 +1895,126 @@
       </c>
     </row>
     <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="17" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="17" t="s">
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="19"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="22"/>
       <c r="AG3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="17" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="19"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="22"/>
       <c r="AG4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="17" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="19"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="22"/>
       <c r="AG5" s="5" t="s">
         <v>5</v>
       </c>
@@ -2847,128 +2847,128 @@
       </c>
     </row>
     <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="17" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="17" t="s">
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="19"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="22"/>
       <c r="AG3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="23" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="25"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="29"/>
       <c r="AG4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="31" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="17" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="19"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="22"/>
       <c r="AG5" s="5" t="s">
         <v>5</v>
       </c>
@@ -3145,284 +3145,284 @@
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="17" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="17" t="s">
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="19"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="22"/>
       <c r="AG9" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="32" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="30"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="26"/>
       <c r="AG10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="19"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="22"/>
       <c r="AG11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="22"/>
       <c r="AG12" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="19"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="22"/>
       <c r="AG13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="22"/>
       <c r="AG14" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="31" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="17" t="s">
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="19"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="22"/>
       <c r="AG15" s="5" t="s">
         <v>39</v>
       </c>
@@ -3809,85 +3809,85 @@
       <c r="AG24" s="2"/>
     </row>
     <row r="25" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="17" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="17" t="s">
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="19"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="22"/>
       <c r="AG25" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="29" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="30"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="26"/>
       <c r="AG26" s="5" t="s">
         <v>3</v>
       </c>
@@ -4064,128 +4064,128 @@
       <c r="AG29" s="2"/>
     </row>
     <row r="30" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="17" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="17" t="s">
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="19"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="22"/>
       <c r="AG30" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="17" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
-      <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-      <c r="AE31" s="18"/>
-      <c r="AF31" s="19"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="22"/>
       <c r="AG31" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="14" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="17" t="s">
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="18"/>
-      <c r="AF32" s="19"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="22"/>
       <c r="AG32" s="5" t="s">
         <v>5</v>
       </c>
@@ -4507,6 +4507,24 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="Q4:AF4"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="U3:AF3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="U25:AF25"/>
+    <mergeCell ref="A32:P32"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="Q32:AB32"/>
+    <mergeCell ref="Q26:AF26"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="Q31:AF31"/>
+    <mergeCell ref="A30:P30"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="U30:AF30"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="I15:P15"/>
     <mergeCell ref="Q15:AF15"/>
@@ -4522,24 +4540,6 @@
     <mergeCell ref="A12:AF12"/>
     <mergeCell ref="A13:AF13"/>
     <mergeCell ref="A14:AF14"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="U25:AF25"/>
-    <mergeCell ref="A32:P32"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="Q32:AB32"/>
-    <mergeCell ref="Q26:AF26"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="Q31:AF31"/>
-    <mergeCell ref="A30:P30"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="U30:AF30"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="Q4:AF4"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="U3:AF3"/>
-    <mergeCell ref="A4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
